--- a/DATA/Aufgabe2.3.xlsx
+++ b/DATA/Aufgabe2.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\TRNSYS2020\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4399A23-0521-4D79-AD1A-55ECAF4FC684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADF74A3-D0B5-4B7A-8188-1D15232B368E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{410629CD-852E-4950-AEE7-A1C0C815B04E}"/>
   </bookViews>
@@ -92,13 +92,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -414,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428594CC-3E90-4D37-AC74-E8E7FFF4C4D0}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="48" workbookViewId="0">
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -449,59 +448,73 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>8760</v>
+      </c>
       <c r="B2" s="2">
-        <v>0.70284855018965597</v>
+        <v>0.69698498285963195</v>
       </c>
       <c r="C2" s="2">
-        <v>0.69148262109886294</v>
+        <v>0.67413883517610396</v>
       </c>
       <c r="D2" s="2">
-        <v>3461.3475499749197</v>
+        <v>3510.0611073926498</v>
       </c>
       <c r="E2" s="2">
-        <v>3461.3579650287502</v>
+        <v>3510.0714405517501</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>0.04</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>8760</v>
+      </c>
       <c r="B3" s="2">
-        <v>0.69753759269313698</v>
+        <v>0.68701539270310996</v>
       </c>
       <c r="C3" s="2">
-        <v>0.67555511053916695</v>
+        <v>0.64422901286373802</v>
       </c>
       <c r="D3" s="2">
-        <v>3506.8598253035602</v>
+        <v>3602.1219455309902</v>
       </c>
       <c r="E3" s="2">
-        <v>3506.8700928933399</v>
+        <v>3602.13209121606</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
         <v>0.04</v>
@@ -514,58 +527,72 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>8760</v>
+      </c>
       <c r="B4" s="2">
-        <v>0.69211779876233703</v>
+        <v>0.677219513285375</v>
       </c>
       <c r="C4" s="2">
-        <v>0.660255252921092</v>
+        <v>0.61699579870641397</v>
       </c>
       <c r="D4" s="2">
-        <v>3550.9428110435902</v>
+        <v>3689.5666371203802</v>
       </c>
       <c r="E4" s="2">
-        <v>3550.9529319475</v>
+        <v>3689.5766015316694</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
         <v>0.04</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>8760</v>
+      </c>
       <c r="B5" s="2">
-        <v>0.69751781867104201</v>
+        <v>0.66730110246369001</v>
       </c>
       <c r="C5" s="2">
-        <v>0.67548261287665701</v>
+        <v>0.59183753589902799</v>
       </c>
       <c r="D5" s="2">
-        <v>3507.0925925224801</v>
+        <v>3773.4334935715601</v>
       </c>
       <c r="E5" s="2">
-        <v>3507.1028593409496</v>
+        <v>3773.4432705504901</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>2.5</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
         <v>0.04</v>
@@ -578,58 +605,72 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>8760</v>
+      </c>
       <c r="B6" s="2">
-        <v>0.69753759269313698</v>
+        <v>0.65757537040340797</v>
       </c>
       <c r="C6" s="2">
-        <v>0.67555511053916695</v>
+        <v>0.56852729786325695</v>
       </c>
       <c r="D6" s="2">
-        <v>3506.8598253035602</v>
+        <v>3854.7850757749702</v>
       </c>
       <c r="E6" s="2">
-        <v>3506.8700928933399</v>
+        <v>3854.7946784969204</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
         <v>0.04</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>0.697424049454339</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.67554880029106301</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3506.4453007371499</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3506.4555697894302</v>
+      <c r="A7" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.64831674960680197</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.54762106655673304</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3929.3471893858305</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3929.3566218424899</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
         <v>0.04</v>
@@ -642,172 +683,353 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>0.69976380463594001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.68680971391006396</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3465.3119659654199</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3465.3223449608799</v>
+      <c r="A8" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.63837146394947897</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.52745857908323102</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4003.0501081439297</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4003.0593879260505</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
-        <v>0.69753759269313698</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.67555511053916695</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3506.8598253035602</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3506.8700928933399</v>
+      <c r="A9" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.628706347212176</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.50880236044650995</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4072.7125691943597</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4072.7216945609998</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
         <v>0.04</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>8760</v>
+      </c>
       <c r="B10" s="2">
-        <v>0.68800232323163502</v>
+        <v>0.64968001873434</v>
       </c>
       <c r="C10" s="2">
-        <v>0.64444442061706597</v>
+        <v>0.55425098763133895</v>
       </c>
       <c r="D10" s="2">
-        <v>3607.6752740542001</v>
+        <v>3892.3258130794898</v>
       </c>
       <c r="E10" s="2">
-        <v>3607.6853307311003</v>
+        <v>3892.3354252494896</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="H10" s="2">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.66690091087571002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.59264787443834299</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3765.5231635381197</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3765.5330338470599</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.67347101585791103</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.60815075093682103</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3716.5105285223094</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3716.5204609664302</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.677219513285375</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.61699579870641397</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3689.5666371203802</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3689.5766015316694</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.67935861880356696</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.62254908461607994</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3672.5152775451702</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3672.52526239794</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.68088817346469999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.62655990183337795</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3660.59289065032</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3660.6028900732899</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>75</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.68236906845927903</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.62989105223867703</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3650.96776535153</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3650.9777760829502</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -816,11 +1038,33 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.68327380991410303</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.63233149061771998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3643.6286554557196</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3643.63867505382</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -829,11 +1073,33 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.68846988760267303</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.64580451609448597</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3602.98960252084</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3602.99969014507</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.02</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -842,11 +1108,34 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.68257149043698895</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.63039852404242203</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3649.4285589278197</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3649.4385714619498</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.03</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -855,11 +1144,34 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.677219513285375</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.61699579870641397</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3689.5666371203802</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3689.5766015316694</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.04</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -868,11 +1180,34 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.67203352226088797</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.604539044407021</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3727.5605437677796</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3727.5704626087404</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.05</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -881,14 +1216,34 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="2">
+        <v>8760</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.66710341573127097</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.59299485165089594</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3764.49902506953</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3764.5088964012398</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.06</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -901,12 +1256,30 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.65759887196164601</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.57153252006595801</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3834.4558773823396</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3834.4656663665596</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.08</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -919,256 +1292,138 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="A24" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.64876204861857201</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.55250141790734397</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3897.9634686286199</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3897.9730739568599</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="A25" s="1">
+        <v>8760</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.64007276705337601</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.53501650414525403</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3957.9861820122601</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3957.99571211185</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+    </row>
+    <row r="37" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="10:21" x14ac:dyDescent="0.45">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
